--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3810617.462112472</v>
+        <v>3808729.88059607</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>628141.4791857689</v>
+        <v>636586.7415026353</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>184.5331443810482</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>123.6937125567014</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>52.10844059186253</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>22.35153719005456</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>32.10505573559381</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>183.8819774006277</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>97.72840025712615</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>76.94981712654037</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>207.0386091466818</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>36.74365704764521</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>31.00039123758591</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>183.1796758466998</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>206.806426921486</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750035</v>
+        <v>147.0038766127623</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.843519215191</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>203.843519215191</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>279.3977360013905</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>255.3303665522242</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965504</v>
+        <v>93.41221638965541</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801223</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897881</v>
+        <v>93.71057173897918</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571468</v>
+        <v>55.21598883571505</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523549</v>
+        <v>54.76109577523586</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298319</v>
+        <v>91.0506836066165</v>
       </c>
       <c r="U31" t="n">
-        <v>231.03409577002</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604798</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>161.2296521166753</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1254.177966138804</v>
+        <v>2251.981069572904</v>
       </c>
       <c r="C2" t="n">
-        <v>885.2154491983927</v>
+        <v>1883.018552632492</v>
       </c>
       <c r="D2" t="n">
-        <v>526.9497505916422</v>
+        <v>1524.752854025742</v>
       </c>
       <c r="E2" t="n">
-        <v>526.9497505916422</v>
+        <v>1138.964601427497</v>
       </c>
       <c r="F2" t="n">
-        <v>520.0042498424388</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>506.0808457810297</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>178.8861258170325</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1640.777806202926</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>1640.777806202926</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="3">
@@ -4407,13 +4407,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4434,10 +4434,10 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1515.02307474038</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>1146.060557799969</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>787.7948591932184</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2609.691052320843</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2609.691052320843</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="U5" t="n">
-        <v>2609.691052320843</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="V5" t="n">
-        <v>2278.628164977272</v>
+        <v>1949.14065540757</v>
       </c>
       <c r="W5" t="n">
-        <v>2278.628164977272</v>
+        <v>1596.372000137456</v>
       </c>
       <c r="X5" t="n">
-        <v>1905.162406716192</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="Y5" t="n">
-        <v>1515.02307474038</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,10 +4650,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>302.7751770479791</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C7" t="n">
-        <v>302.7751770479791</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D7" t="n">
-        <v>152.6585376356434</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E7" t="n">
-        <v>152.6585376356434</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F7" t="n">
-        <v>152.6585376356434</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G7" t="n">
-        <v>152.6585376356434</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>620.9849770534499</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>620.9849770534499</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782189</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.4236418782189</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>997.2466063457016</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>628.2840894052899</v>
       </c>
       <c r="D8" t="n">
-        <v>439.1214116936057</v>
+        <v>270.0183907985394</v>
       </c>
       <c r="E8" t="n">
-        <v>439.1214116936057</v>
+        <v>270.0183907985394</v>
       </c>
       <c r="F8" t="n">
-        <v>432.1759109444022</v>
+        <v>263.072890049336</v>
       </c>
       <c r="G8" t="n">
-        <v>418.2525068829931</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>91.05778691899599</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,13 +5051,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5069,7 +5069,7 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>754.8724882112625</v>
       </c>
       <c r="M12" t="n">
-        <v>2056.693778606511</v>
+        <v>1523.240634603724</v>
       </c>
       <c r="N12" t="n">
-        <v>2623.573505376138</v>
+        <v>2327.652212867875</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2607.192278086572</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2607.192278086572</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5212,7 +5212,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>835.4163915387941</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018335</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038162</v>
+        <v>705.2471179313758</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>705.2471179313758</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,25 +5276,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1819.161927111988</v>
+        <v>1847.655958041207</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5464,22 +5464,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5595,19 +5595,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>465.3907418918573</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>1079.287811648746</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527472</v>
+        <v>1847.655958041207</v>
       </c>
       <c r="N18" t="n">
-        <v>1669.996816116898</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O18" t="n">
-        <v>2339.460577419557</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1150.507496218139</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1150.507496218139</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>619.396889022213</v>
       </c>
       <c r="M21" t="n">
-        <v>334.2881267578673</v>
+        <v>1387.765035414674</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5890,40 +5890,40 @@
         <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,16 +5935,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011509</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
         <v>325.2066423583032</v>
@@ -6069,22 +6069,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>802.0403666355641</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578673</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6148,19 +6148,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011509</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028586</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028586</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,25 +6215,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6245,10 +6245,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.1301850426792</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C28" t="n">
-        <v>245.1301850426791</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1017.221394183544</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>762.5369059776574</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>473.1197359406966</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>245.1301850426793</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y28" t="n">
-        <v>245.1301850426792</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,16 +6452,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1808.163466324677</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>567.5935089039617</v>
+        <v>659.7457372049864</v>
       </c>
       <c r="C31" t="n">
-        <v>454.4181912574261</v>
+        <v>546.5704195584501</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264614</v>
+        <v>452.214645427485</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264614</v>
+        <v>360.0624171264625</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264614</v>
+        <v>360.0624171264625</v>
       </c>
       <c r="G31" t="n">
-        <v>247.647960727653</v>
+        <v>247.6479607276538</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864675</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933507</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667515</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962061</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167073</v>
+        <v>1788.841437417839</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662002</v>
+        <v>1555.473663912768</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737486</v>
+        <v>1356.550040988252</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818963</v>
+        <v>1122.893736232662</v>
       </c>
       <c r="X31" t="n">
-        <v>730.45174336525</v>
+        <v>950.6650506160149</v>
       </c>
       <c r="Y31" t="n">
-        <v>567.5935089039617</v>
+        <v>785.6333367538555</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>629.3975440735812</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6923,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7667,7 +7667,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,16 +7804,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,13 +8781,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,10 +9018,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,16 +10200,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,10 +10440,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,28 +11139,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11376,28 +11376,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>148.8315889443514</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>103.0576765518776</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>36.51615797628576</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>79.43092547709139</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338569</v>
+        <v>74.54368444562695</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338639</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338636</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>7.125262335200527</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338589</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>30.90698584635318</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801186</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437393</v>
+        <v>90.2177913943743</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>75.29362082321579</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.151744606862164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>664749.4015541053</v>
+        <v>664749.4015541052</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>691597.6334869595</v>
+        <v>691597.6334869594</v>
       </c>
     </row>
     <row r="12">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778546</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278755</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="F2" t="n">
         <v>703852.3075278756</v>
@@ -26329,31 +26329,31 @@
         <v>703852.3075278758</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="I2" t="n">
         <v>703852.3075278756</v>
       </c>
       <c r="J2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278755</v>
       </c>
       <c r="K2" t="n">
-        <v>732279.8472214851</v>
+        <v>732279.8472214849</v>
       </c>
       <c r="L2" t="n">
-        <v>738937.5928778563</v>
+        <v>738937.5928778561</v>
       </c>
       <c r="M2" t="n">
+        <v>738937.5928778561</v>
+      </c>
+      <c r="N2" t="n">
         <v>738937.5928778562</v>
       </c>
-      <c r="N2" t="n">
-        <v>738937.5928778563</v>
-      </c>
       <c r="O2" t="n">
-        <v>738937.5928778563</v>
+        <v>738937.5928778562</v>
       </c>
       <c r="P2" t="n">
-        <v>738937.5928778563</v>
+        <v>738937.5928778562</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028459</v>
+        <v>44162.60530284556</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086667</v>
+        <v>10342.90680086697</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284587</v>
+        <v>44162.60530284554</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758875</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758887</v>
+        <v>787.7936905758888</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758888</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758888</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758888</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477248</v>
+        <v>18952.41620477236</v>
       </c>
       <c r="L4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189636</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26491,16 +26491,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72948.50358071824</v>
+        <v>-72948.50358071848</v>
       </c>
       <c r="C6" t="n">
         <v>517019.3756338261</v>
       </c>
       <c r="D6" t="n">
-        <v>517019.3756338261</v>
+        <v>517019.3756338263</v>
       </c>
       <c r="E6" t="n">
-        <v>85917.15141168689</v>
+        <v>85819.69228571506</v>
       </c>
       <c r="F6" t="n">
-        <v>611077.1878885832</v>
+        <v>610979.728762611</v>
       </c>
       <c r="G6" t="n">
-        <v>611077.1878885833</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="H6" t="n">
-        <v>611077.1878885833</v>
+        <v>610979.728762611</v>
       </c>
       <c r="I6" t="n">
-        <v>611077.1878885832</v>
+        <v>610979.728762611</v>
       </c>
       <c r="J6" t="n">
-        <v>434653.9686959903</v>
+        <v>434556.509570018</v>
       </c>
       <c r="K6" t="n">
-        <v>572536.6171836439</v>
+        <v>572518.1234457098</v>
       </c>
       <c r="L6" t="n">
-        <v>607672.9993250679</v>
+        <v>607672.9993250674</v>
       </c>
       <c r="M6" t="n">
         <v>483214.8908920973</v>
       </c>
       <c r="N6" t="n">
-        <v>618015.9061259346</v>
+        <v>618015.9061259344</v>
       </c>
       <c r="O6" t="n">
-        <v>618015.9061259346</v>
+        <v>618015.9061259344</v>
       </c>
       <c r="P6" t="n">
-        <v>573853.3008230887</v>
+        <v>573853.3008230889</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855737</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108334</v>
+        <v>12.92863350108371</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855737</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>222.3429013606632</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>28.23760368815988</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>202.6835682680297</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>142.3106570733777</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>32.56634295703006</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>58.44248858466899</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>69.71537485361746</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>206.7455608741132</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>115.187659197216</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724685</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,25 +31118,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>162.4518126576415</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071298</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,28 +31847,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>156.5284683179065</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>212.6272478467031</v>
+        <v>409.410311565473</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,25 +32312,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>245.2687781552869</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>102.4943942860912</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32494,7 +32494,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
         <v>76.06970478104648</v>
@@ -32549,28 +32549,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>168.5445774098391</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32786,28 +32786,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>353.0329386354462</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -32968,7 +32968,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
         <v>76.06970478104648</v>
@@ -33023,28 +33023,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33205,7 +33205,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
         <v>76.06970478104648</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,19 +33269,19 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>369.5189057912002</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33418,7 +33418,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33497,25 +33497,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>213.9849829127209</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33679,7 +33679,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33892,7 +33892,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33971,28 +33971,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34208,31 +34208,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34390,7 +34390,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35018,19 +35018,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>16.54669423188499</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,16 +35732,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>536.1982776746847</v>
+        <v>732.9813413934546</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>371.8925761935065</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>286.9827555116981</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>400.8305429334241</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>585.3189041590311</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36762,7 +36762,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206028</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36917,19 +36917,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>693.0899356191818</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412283</v>
+        <v>67.71102679412246</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341609</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043206</v>
+        <v>94.42895660043169</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>537.5560127407025</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38035,10 +38035,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
